--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Adm</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H2">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16383583964615</v>
+        <v>1.240458</v>
       </c>
       <c r="N2">
-        <v>1.16383583964615</v>
+        <v>3.721374</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7314599148753498</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7314599148753498</v>
       </c>
       <c r="Q2">
-        <v>21.24410524050062</v>
+        <v>23.240669497676</v>
       </c>
       <c r="R2">
-        <v>21.24410524050062</v>
+        <v>209.166025479084</v>
       </c>
       <c r="S2">
-        <v>0.483659183531952</v>
+        <v>0.3437342904619063</v>
       </c>
       <c r="T2">
-        <v>0.483659183531952</v>
+        <v>0.3437342904619063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4869439513544</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H3">
-        <v>19.4869439513544</v>
+        <v>56.206666</v>
       </c>
       <c r="I3">
-        <v>0.5163408164680481</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J3">
-        <v>0.5163408164680481</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.455408</v>
+      </c>
+      <c r="N3">
+        <v>1.366224</v>
+      </c>
+      <c r="O3">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="P3">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="Q3">
+        <v>8.532321783242667</v>
+      </c>
+      <c r="R3">
+        <v>76.790896049184</v>
+      </c>
+      <c r="S3">
+        <v>0.1261947972044808</v>
+      </c>
+      <c r="T3">
+        <v>0.1261947972044808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G4">
+        <v>19.55844</v>
+      </c>
+      <c r="H4">
+        <v>58.67532</v>
+      </c>
+      <c r="I4">
+        <v>0.490568851675588</v>
+      </c>
+      <c r="J4">
+        <v>0.4905688516755881</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1.16383583964615</v>
-      </c>
-      <c r="N3">
-        <v>1.16383583964615</v>
-      </c>
-      <c r="O3">
+      <c r="M4">
+        <v>1.240458</v>
+      </c>
+      <c r="N4">
+        <v>3.721374</v>
+      </c>
+      <c r="O4">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="P4">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="Q4">
+        <v>24.26142336552</v>
+      </c>
+      <c r="R4">
+        <v>218.35281028968</v>
+      </c>
+      <c r="S4">
+        <v>0.3588314504871237</v>
+      </c>
+      <c r="T4">
+        <v>0.3588314504871237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="G5">
+        <v>19.55844</v>
+      </c>
+      <c r="H5">
+        <v>58.67532</v>
+      </c>
+      <c r="I5">
+        <v>0.490568851675588</v>
+      </c>
+      <c r="J5">
+        <v>0.4905688516755881</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.455408</v>
+      </c>
+      <c r="N5">
+        <v>1.366224</v>
+      </c>
+      <c r="O5">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="P5">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="Q5">
+        <v>8.907070043520001</v>
+      </c>
+      <c r="R5">
+        <v>80.16363039168</v>
+      </c>
+      <c r="S5">
+        <v>0.1317374011884643</v>
+      </c>
+      <c r="T5">
+        <v>0.1317374011884643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J6">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>22.67960377576201</v>
-      </c>
-      <c r="R3">
-        <v>22.67960377576201</v>
-      </c>
-      <c r="S3">
-        <v>0.5163408164680481</v>
-      </c>
-      <c r="T3">
-        <v>0.5163408164680481</v>
+      <c r="M6">
+        <v>1.240458</v>
+      </c>
+      <c r="N6">
+        <v>3.721374</v>
+      </c>
+      <c r="O6">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="P6">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="Q6">
+        <v>0.392250599498</v>
+      </c>
+      <c r="R6">
+        <v>3.530255395482</v>
+      </c>
+      <c r="S6">
+        <v>0.005801467187302198</v>
+      </c>
+      <c r="T6">
+        <v>0.005801467187302199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J7">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.455408</v>
+      </c>
+      <c r="N7">
+        <v>1.366224</v>
+      </c>
+      <c r="O7">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="P7">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="Q7">
+        <v>0.1440065371146667</v>
+      </c>
+      <c r="R7">
+        <v>1.296058834032</v>
+      </c>
+      <c r="S7">
+        <v>0.002129886355551675</v>
+      </c>
+      <c r="T7">
+        <v>0.002129886355551676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.776068</v>
+      </c>
+      <c r="I8">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J8">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.240458</v>
+      </c>
+      <c r="N8">
+        <v>3.721374</v>
+      </c>
+      <c r="O8">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="P8">
+        <v>0.7314599148753498</v>
+      </c>
+      <c r="Q8">
+        <v>1.561351253048</v>
+      </c>
+      <c r="R8">
+        <v>14.052161277432</v>
+      </c>
+      <c r="S8">
+        <v>0.02309270673901756</v>
+      </c>
+      <c r="T8">
+        <v>0.02309270673901757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.776068</v>
+      </c>
+      <c r="I9">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J9">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.455408</v>
+      </c>
+      <c r="N9">
+        <v>1.366224</v>
+      </c>
+      <c r="O9">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="P9">
+        <v>0.2685400851246502</v>
+      </c>
+      <c r="Q9">
+        <v>0.5732171919146667</v>
+      </c>
+      <c r="R9">
+        <v>5.158954727232</v>
+      </c>
+      <c r="S9">
+        <v>0.008478000376153413</v>
+      </c>
+      <c r="T9">
+        <v>0.008478000376153417</v>
       </c>
     </row>
   </sheetData>
